--- a/Database/Ass 1 Table.xlsx
+++ b/Database/Ass 1 Table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Entity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="100">
   <si>
     <t xml:space="preserve">Entities </t>
   </si>
@@ -42,21 +43,9 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Not Null</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>Unsigned</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Entity Name</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -217,13 +206,127 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>PFK</t>
+  </si>
+  <si>
+    <t>Provider_UserID</t>
+  </si>
+  <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>ENUM('YES', 'NO')</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>RateOfQuality</t>
+  </si>
+  <si>
+    <t>ENUM('1', '2', '3', '4', '5', '6', '7', '8', '9', '10')</t>
+  </si>
+  <si>
+    <t>DateOfIssue</t>
+  </si>
+  <si>
+    <t>DateOfCancellation</t>
+  </si>
+  <si>
+    <t>CurrentBalance</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaidRide: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RideShareCard: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topup: </t>
+  </si>
+  <si>
+    <t>AddedAmount</t>
+  </si>
+  <si>
+    <t>TopupTime</t>
+  </si>
+  <si>
+    <t>BSB</t>
+  </si>
+  <si>
+    <t>BankAccount</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment: </t>
+  </si>
+  <si>
+    <t>AmountPaid</t>
+  </si>
+  <si>
+    <t>PaymentTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post: </t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Employee_UserID</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +350,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -337,14 +447,244 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="283">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -380,6 +720,112 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -415,6 +861,112 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,30 +1296,1302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13" ht="59" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="56" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="61" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="55" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="58" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="51" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="54" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="59" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A58:G58"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,377 +2604,212 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -1158,13 +2817,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -1172,13 +2831,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -1186,13 +2845,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -1200,13 +2859,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1214,13 +2873,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -1228,13 +2887,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
